--- a/2015-16 FARP - College of Agricultural and Environmental Sciences.xlsx
+++ b/2015-16 FARP - College of Agricultural and Environmental Sciences.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Resident</t>
   </si>
@@ -246,38 +246,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>2014-15 Undergraduate Financial Aid Gap - Aid Recipients with Complete FAFSAs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>¹</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Need</t>
-    </r>
-  </si>
-  <si>
-    <t>College-Specific Undergraduate Financial Need and Financial Aid Gap (unmet financial need) for 2014-15</t>
-  </si>
-  <si>
-    <t>College-Specific Undergraduate Gift Aid for 2014-15: Aid Recipients with Complete FAFSAs and Need</t>
-  </si>
-  <si>
     <t>Percentage of Total Cost for Resident 2015-16</t>
   </si>
   <si>
@@ -292,18 +260,25 @@
   <si>
     <t>2015-16</t>
   </si>
+  <si>
+    <t>College-Specific Undergraduate Gift Aid for 2015-16: Aid Recipients with Complete FAFSAs and Need</t>
+  </si>
+  <si>
+    <t>College-Specific Undergraduate Financial Need and Financial Aid Gap (unmet financial need) for 2015-16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,13 +434,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -707,7 +675,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -963,10 +931,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,12 +977,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1023,6 +985,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1144,7 +1119,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>$22,680 </a:t>
+              <a:t>$25,134 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -1205,190 +1180,32 @@
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.7015529308836395E-2"/>
-                  <c:y val="-7.7376057159521727E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Tuition/Fees,  $10,836 (48%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12121244906680737"/>
-                  <c:y val="-1.3703703703703701E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000"/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Books/Supplies,  $800 (4%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4521434820647432E-2"/>
-                  <c:y val="-1.9626713327500728E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Room/Board,  $8,886 (41%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.1446850393700788E-2"/>
-                  <c:y val="1.9554170312044327E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Misc./Travel,  $1,798</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>(8%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1436,11 +1253,11 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1534,7 +1351,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Estimated Cost of Attendance: $40,890</a:t>
+              <a:t>Estimated Cost of Attendance: $43,868</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -1603,160 +1420,32 @@
             <c:explosion val="13"/>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.2469816272965879E-2"/>
-                  <c:y val="-0.3938719160104987"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Tuition/Fees,  $29,046 (71%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1080354330708661"/>
-                  <c:y val="9.7862715077281989E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Books/Supplies,  $800 (2%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.2834645669291338E-3"/>
-                  <c:y val="-2.5802347623213765E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Room/Board,  $9,246 (23%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Misc./Travel,  $1,798 (4%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1804,11 +1493,11 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1855,7 +1544,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1500" b="1" baseline="0"/>
-              <a:t>Total Aid Recipients by Class Level: 1,510</a:t>
+              <a:t>Total Aid Recipients by Class Level: 1,488</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1938,7 +1627,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2000,7 +1691,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2018,7 +1711,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2146,7 +1841,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1500" baseline="0"/>
-              <a:t>Total Aid by Class Level: $17,658,576</a:t>
+              <a:t>Total Aid by Class Level: $18,934,515</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2223,7 +1918,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2241,7 +1938,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2259,7 +1958,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2277,7 +1978,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2364,12 +2067,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="412572240"/>
-        <c:axId val="412573416"/>
+        <c:axId val="478197048"/>
+        <c:axId val="478192344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="412572240"/>
+        <c:axId val="478197048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412573416"/>
+        <c:crossAx val="478192344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412573416"/>
+        <c:axId val="478192344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2110,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412572240"/>
+        <c:crossAx val="478197048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,7 +2229,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $7,243</a:t>
+              <a:t>Average Gift Aid: $8,067</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -2625,34 +2328,10 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15494972355960082"/>
-                  <c:y val="0.1852640159110546"/>
+                  <c:x val="0.14091206787960647"/>
+                  <c:y val="0.23609885720806639"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>$4,902,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>68%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2660,7 +2339,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -2669,47 +2347,22 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.24366452832533425"/>
-                  <c:y val="-0.24044309678681469"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>$2,340,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>32%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
+              <c:layout/>
+              <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23368762087791217"/>
+                      <c:h val="0.26511403465871114"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2720,28 +2373,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2766,10 +2408,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4902.4003481894151</c:v>
+                  <c:v>5761.2801086956524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2340.3718662952647</c:v>
+                  <c:v>2305.429347826087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,9 +2421,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -2877,7 +2519,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $7,965</a:t>
+              <a:t>Average Gift Aid: $11,463</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -2965,42 +2607,16 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0492458690848067E-2"/>
-                  <c:y val="0.25162811170342836"/>
+                  <c:x val="7.5598846789805885E-2"/>
+                  <c:y val="0.30742081152899364"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>$6,583,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>83%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -3011,45 +2627,24 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14005346793100948"/>
-                  <c:y val="-3.2491808089206244E-2"/>
+                  <c:x val="-0.23734263315909235"/>
+                  <c:y val="-0.26076588252555388"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>$1,382,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>17%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28151314433046309"/>
+                      <c:h val="0.26511403465871114"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3060,28 +2655,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3106,10 +2689,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6583.2210526315785</c:v>
+                  <c:v>9408.6538461538457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1381.7105263157894</c:v>
+                  <c:v>2054.1794871794873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,9 +2702,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3217,7 +2800,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $7,279</a:t>
+              <a:t>Average Gift Aid: $8,238</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -3309,35 +2892,30 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19433722402247927"/>
-                  <c:y val="0.16305668313199981"/>
+                  <c:x val="0.15768724680951351"/>
+                  <c:y val="0.21346668622943871"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>$4,987,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>69%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22318577611190427"/>
+                  <c:y val="-0.21269689114947588"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -3348,52 +2926,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.24028347615093534"/>
-                      <c:h val="0.28132505175983435"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.24159860264113622"/>
-                  <c:y val="-0.20252946642539249"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $2,292,</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>31%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.21637070692045585"/>
-                      <c:h val="0.26890269151138718"/>
+                      <c:w val="0.28595677564337724"/>
+                      <c:h val="0.21428571428571427"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -3406,19 +2940,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
@@ -3428,7 +2949,7 @@
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3453,10 +2974,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4986.8860449735448</c:v>
+                  <c:v>5944.8253677419352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2292.1851851851852</c:v>
+                  <c:v>2292.7858064516131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,9 +2987,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3601,7 +3122,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3632,6 +3155,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3660,13 +3184,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7242.7722144846803</c:v>
+                  <c:v>7298.3127173913044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7964.9315789473694</c:v>
+                  <c:v>10502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7279.0712301587309</c:v>
+                  <c:v>7459.5305290322585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,7 +3227,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3734,6 +3260,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3762,13 +3289,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7226.9840529247904</c:v>
+                  <c:v>8405.7035869565207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17324.989473684211</c:v>
+                  <c:v>15479.435897435897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7734.5557539682532</c:v>
+                  <c:v>8761.6720516129026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3784,12 +3311,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="412576944"/>
-        <c:axId val="412577336"/>
+        <c:axId val="478203712"/>
+        <c:axId val="478204104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="412576944"/>
+        <c:axId val="478203712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,7 +3336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412577336"/>
+        <c:crossAx val="478204104"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3817,7 +3344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412577336"/>
+        <c:axId val="478204104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3840,6 +3367,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -3861,7 +3389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412576944"/>
+        <c:crossAx val="478203712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3869,6 +3397,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3935,6 +3464,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3989,7 +3519,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4007,7 +3539,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4025,7 +3559,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4084,13 +3620,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7226.9840529247904</c:v>
+                  <c:v>8405.7035869565207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17324.989473684211</c:v>
+                  <c:v>15479.435897435897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7734.5557539682532</c:v>
+                  <c:v>8761.6720516129026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,12 +3642,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="412578120"/>
-        <c:axId val="412579296"/>
+        <c:axId val="478201752"/>
+        <c:axId val="478148832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="412578120"/>
+        <c:axId val="478201752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,7 +3667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412579296"/>
+        <c:crossAx val="478148832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4139,7 +3675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412579296"/>
+        <c:axId val="478148832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,13 +3701,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412578120"/>
+        <c:crossAx val="478201752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4506,7 +4043,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
@@ -4710,7 +4247,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Overall Undergraduate Student Financial Aid Information for 2014-15</a:t>
+            <a:t>Overall Undergraduate Student Financial Aid Information for 2015-16</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -4760,7 +4297,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  HOPE Scholarship (merit-based State scholarship) maximum possible award amount: $3,390 per semester</a:t>
+            <a:t>  HOPE Scholarship (merit-based State scholarship) maximum possible award amount: $3,495 per semester</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4778,7 +4315,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Zell Miller Scholarship (merit-based State scholarship) maximum possible award amount: $4,295 per semester</a:t>
+            <a:t>  Zell Miller Scholarship (merit-based State scholarship) maximum possible award amount: $4,682 per semester</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4796,7 +4333,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Federal Pell Grant (need-based Federal grant) maximum possible award amount: $5,730 per academic year</a:t>
+            <a:t>  Federal Pell Grant (need-based Federal grant) maximum possible award amount: $5,775 per academic year</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4832,7 +4369,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Estimated Cost of Attendance (Fall &amp; Spring): $22,680 (Resident), $40,890 (Nonresident) living on campus</a:t>
+            <a:t>  Estimated Cost of Attendance (Fall &amp; Spring): $25,134 (Resident), $43,868 (Nonresident) living on campus</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4949,7 +4486,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2014-15 Financial Aid Recipient Profile</a:t>
+            <a:t>2015-16 Financial Aid Recipient Profile</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5084,7 +4621,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5315"/>
+                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5338"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5198,7 +4735,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Undergraduate Aid Recipient Demographics for 2014-15</a:t>
+            <a:t>Undergraduate Aid Recipient Demographics for 2015-16</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -5267,7 +4804,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Thirteen (13) percent of aid recipients are First Generation college students</a:t>
+            <a:t>Fifeen (15) percent of aid recipients are First Generation college students</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5285,7 +4822,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Twenty-seven (27) percent of aid recipients are Federal Pell Grant eligible, with an average award of $4,204</a:t>
+            <a:t>Twenty-seven (27) percent of aid recipients are Federal Pell Grant eligible, with an average award of $4,406</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5519,7 +5056,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6522"/>
+                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6564"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5578,7 +5115,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6523"/>
+                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6565"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5910,9 +5447,7 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5924,7 +5459,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -5932,7 +5467,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5984,7 +5519,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6033,17 +5568,17 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="113">
+        <v>34</v>
+      </c>
+      <c r="B40" s="111">
         <v>42689</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="113">
+        <v>35</v>
+      </c>
+      <c r="B41" s="111">
         <v>42689</v>
       </c>
     </row>
@@ -6057,9 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6076,8 +5609,8 @@
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1">
       <c r="A2" s="87"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115" t="str">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113" t="str">
         <f>'COA Data'!A1 &amp; " Aid Recipients by Class Level"</f>
         <v>2015-16 Aid Recipients by Class Level</v>
       </c>
@@ -6258,7 +5791,7 @@
         <f>'COA Data'!A40</f>
         <v>Start</v>
       </c>
-      <c r="B40" s="114">
+      <c r="B40" s="112">
         <f>'COA Data'!B40</f>
         <v>42689</v>
       </c>
@@ -6268,7 +5801,7 @@
         <f>'COA Data'!A41</f>
         <v>Finish</v>
       </c>
-      <c r="B41" s="114">
+      <c r="B41" s="112">
         <f>'COA Data'!B41</f>
         <v>42689</v>
       </c>
@@ -6287,11 +5820,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6302,10 +5833,12 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:10" ht="14.1" customHeight="1">
       <c r="A3" s="48" t="str">
         <f>'COA Data'!A1 &amp; " Undergraduate Gift Aid - Aid Recipients with Complete FAFSAs¹ and Financial Need²"</f>
         <v>2015-16 Undergraduate Gift Aid - Aid Recipients with Complete FAFSAs¹ and Financial Need²</v>
@@ -6317,7 +5850,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="3" customHeight="1">
+    <row r="4" spans="1:10" ht="3" customHeight="1">
       <c r="A4" s="27"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6326,7 +5859,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="28"/>
       <c r="B5" s="50" t="s">
         <v>0</v>
@@ -6341,25 +5874,25 @@
       </c>
       <c r="G5" s="49"/>
     </row>
-    <row r="6" spans="1:8" ht="10.5" customHeight="1">
+    <row r="6" spans="1:10" ht="10.5" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="21">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="21">
         <f>B6+D6</f>
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="12" customHeight="1">
+    <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -6382,90 +5915,94 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1">
       <c r="A8" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="65">
         <f>B9+B10</f>
-        <v>5200310.45</v>
+        <v>5937098.1600000001</v>
       </c>
       <c r="C8" s="66">
         <f>B8/B6</f>
-        <v>7242.7722144846803</v>
+        <v>8066.7094565217394</v>
       </c>
       <c r="D8" s="67">
         <f>D9+D10</f>
-        <v>302667.40000000002</v>
+        <v>447050.5</v>
       </c>
       <c r="E8" s="67">
         <f>D8/D6</f>
-        <v>7964.9315789473694</v>
+        <v>11462.833333333334</v>
       </c>
       <c r="F8" s="65">
         <f>B8+D8</f>
-        <v>5502977.8500000006</v>
+        <v>6384148.6600000001</v>
       </c>
       <c r="G8" s="68">
         <f>F8/F6</f>
-        <v>7279.0712301587309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1">
+        <v>8237.6111741935492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="95">
-        <v>3519923.45</v>
+        <v>4240302.16</v>
       </c>
       <c r="C9" s="62">
         <f>B9/B6</f>
-        <v>4902.4003481894151</v>
+        <v>5761.2801086956524</v>
       </c>
       <c r="D9" s="63">
-        <v>250162.4</v>
+        <v>366937.5</v>
       </c>
       <c r="E9" s="63">
         <f>D9/D6</f>
-        <v>6583.2210526315785</v>
+        <v>9408.6538461538457</v>
       </c>
       <c r="F9" s="61">
         <f>B9+D9</f>
-        <v>3770085.85</v>
+        <v>4607239.66</v>
       </c>
       <c r="G9" s="64">
         <f>F9/F6</f>
-        <v>4986.8860449735448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" thickBot="1">
+        <v>5944.8253677419352</v>
+      </c>
+      <c r="J9" s="117">
+        <f>F9/F8</f>
+        <v>0.72166860537987532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" thickBot="1">
       <c r="A10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="96">
-        <v>1680387</v>
+        <v>1696796</v>
       </c>
       <c r="C10" s="58">
         <f>B10/B6</f>
-        <v>2340.3718662952647</v>
+        <v>2305.429347826087</v>
       </c>
       <c r="D10" s="59">
-        <v>52505</v>
+        <v>80113</v>
       </c>
       <c r="E10" s="59">
         <f>D10/D6</f>
-        <v>1381.7105263157894</v>
+        <v>2054.1794871794873</v>
       </c>
       <c r="F10" s="57">
         <f>B10+D10</f>
-        <v>1732892</v>
+        <v>1776909</v>
       </c>
       <c r="G10" s="60">
         <f>F10/F6</f>
-        <v>2292.1851851851852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1">
+        <v>2292.7858064516131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="78" t="s">
         <v>2</v>
       </c>
@@ -6477,7 +6014,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
     </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1">
+    <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -6487,7 +6024,7 @@
       <c r="G12" s="80"/>
       <c r="H12" s="79"/>
     </row>
-    <row r="13" spans="1:8" ht="12" customHeight="1">
+    <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="77"/>
       <c r="C13" s="81"/>
@@ -6497,7 +6034,7 @@
       <c r="G13" s="82"/>
       <c r="H13" s="79"/>
     </row>
-    <row r="14" spans="1:8" ht="12" customHeight="1">
+    <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="77"/>
       <c r="C14" s="81"/>
@@ -6507,7 +6044,7 @@
       <c r="G14" s="82"/>
       <c r="H14" s="79"/>
     </row>
-    <row r="15" spans="1:8" ht="12" customHeight="1">
+    <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="77"/>
       <c r="C15" s="81"/>
@@ -6519,6 +6056,26 @@
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="31"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="str">
+        <f>'Aid recipients by Class'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B40" s="116">
+        <f>'Aid recipients by Class'!B40</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="str">
+        <f>'Aid recipients by Class'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B41" s="116">
+        <f>'Aid recipients by Class'!B41</f>
+        <v>42689</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6535,10 +6092,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6550,6 +6107,8 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6563,8 +6122,9 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A2" s="86" t="s">
-        <v>32</v>
+      <c r="A2" s="86" t="str">
+        <f>'COA Data'!A1 &amp; " Undergraduate Financial Aid Gap - Aid Recipients with Complete FAFSAs¹ and Need"</f>
+        <v>2015-16 Undergraduate Financial Aid Gap - Aid Recipients with Complete FAFSAs¹ and Need</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6602,16 +6162,18 @@
         <v>7</v>
       </c>
       <c r="B5" s="52">
-        <v>718</v>
+        <f>'Gift Aid - Merit vs Need'!B6</f>
+        <v>736</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="53">
-        <v>38</v>
+        <f>'Gift Aid - Merit vs Need'!D6</f>
+        <v>39</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="52">
         <f>B5+D5</f>
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="G5" s="22"/>
     </row>
@@ -6643,26 +6205,26 @@
         <v>29</v>
       </c>
       <c r="B7" s="65">
-        <v>10389285</v>
+        <v>11558156</v>
       </c>
       <c r="C7" s="66">
         <f>B7/B5</f>
-        <v>14469.756267409472</v>
+        <v>15704.016304347826</v>
       </c>
       <c r="D7" s="67">
-        <v>961017</v>
+        <v>1013276</v>
       </c>
       <c r="E7" s="67">
         <f>D7/D5</f>
-        <v>25289.92105263158</v>
+        <v>25981.435897435898</v>
       </c>
       <c r="F7" s="65">
         <f>B7+D7</f>
-        <v>11350302</v>
+        <v>12571432</v>
       </c>
       <c r="G7" s="68">
         <f>F7/F5</f>
-        <v>15013.626984126984</v>
+        <v>16221.202580645162</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1">
@@ -6670,26 +6232,28 @@
         <v>30</v>
       </c>
       <c r="B8" s="69">
-        <v>5200310.45</v>
+        <f>B7-B9</f>
+        <v>5371558.1600000001</v>
       </c>
       <c r="C8" s="70">
         <f>B8/B5</f>
-        <v>7242.7722144846803</v>
+        <v>7298.3127173913044</v>
       </c>
       <c r="D8" s="71">
-        <v>302667.40000000002</v>
+        <f>D7-D9</f>
+        <v>409578</v>
       </c>
       <c r="E8" s="71">
         <f>D8/D5</f>
-        <v>7964.9315789473694</v>
+        <v>10502</v>
       </c>
       <c r="F8" s="69">
         <f>B8+D8</f>
-        <v>5502977.8500000006</v>
+        <v>5781136.1600000001</v>
       </c>
       <c r="G8" s="72">
         <f>F8/F5</f>
-        <v>7279.0712301587309</v>
+        <v>7459.5305290322585</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
@@ -6697,28 +6261,26 @@
         <v>31</v>
       </c>
       <c r="B9" s="73">
-        <f>B7-B8</f>
-        <v>5188974.55</v>
+        <v>6186597.8399999999</v>
       </c>
       <c r="C9" s="74">
         <f>B9/B5</f>
-        <v>7226.9840529247904</v>
+        <v>8405.7035869565207</v>
       </c>
       <c r="D9" s="75">
-        <f>D7-D8</f>
-        <v>658349.6</v>
+        <v>603698</v>
       </c>
       <c r="E9" s="75">
         <f>D9/D5</f>
-        <v>17324.989473684211</v>
+        <v>15479.435897435897</v>
       </c>
       <c r="F9" s="73">
         <f>B9+D9</f>
-        <v>5847324.1499999994</v>
+        <v>6790295.8399999999</v>
       </c>
       <c r="G9" s="76">
         <f>F9/F5</f>
-        <v>7734.5557539682532</v>
+        <v>8761.6720516129026</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1">
@@ -6841,11 +6403,31 @@
     <row r="23" spans="1:7" ht="13.9" customHeight="1">
       <c r="A23" s="1"/>
     </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="str">
+        <f>'Gift Aid - Merit vs Need'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B40" s="112">
+        <f>'Gift Aid - Merit vs Need'!B40</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="str">
+        <f>'Gift Aid - Merit vs Need'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B41" s="112">
+        <f>'Gift Aid - Merit vs Need'!B41</f>
+        <v>42689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F7:F9 C9:D9" formula="1"/>
+    <ignoredError sqref="F7:F9 C9" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6856,17 +6438,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A60:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="B60" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="str">
+        <f>'Gap Data &amp; Charts'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B60" s="116">
+        <f>'Gap Data &amp; Charts'!B40</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="str">
+        <f>'Gap Data &amp; Charts'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B61" s="116">
+        <f>'Gap Data &amp; Charts'!B41</f>
+        <v>42689</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
@@ -6886,7 +6490,7 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>47</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
@@ -6907,10 +6511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6942,20 +6546,40 @@
       <c r="O6" s="39"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="str">
+        <f>Overview!A60</f>
+        <v>Start</v>
+      </c>
+      <c r="B80" s="118">
+        <f>Overview!B60</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="str">
+        <f>Overview!A61</f>
+        <v>Finish</v>
+      </c>
+      <c r="B81" s="118">
+        <f>Overview!B61</f>
+        <v>42689</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6979,11 +6603,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P54"/>
+  <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6993,49 +6615,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="23.25">
-      <c r="A2" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="A2" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="19" ht="29.25" customHeight="1"/>
     <row r="36" spans="1:16" ht="38.25" customHeight="1"/>
     <row r="37" spans="1:16" ht="23.25">
-      <c r="A37" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
+      <c r="A37" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1"/>
     <row r="54" ht="18" customHeight="1"/>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="str">
+        <f>'Page 2'!A80</f>
+        <v>Start</v>
+      </c>
+      <c r="B80" s="118">
+        <f>'Page 2'!B80</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="str">
+        <f>'Page 2'!A81</f>
+        <v>Finish</v>
+      </c>
+      <c r="B81" s="118">
+        <f>'Page 2'!B81</f>
+        <v>42689</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:P2"/>
